--- a/www.eia.gov/electricity/monthly/xls/table_1_04_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_04_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Table 1.4.B. Utility Scale Facility Net Generation from Coal</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -89,40 +89,40 @@
     <t>Massachusetts</t>
   </si>
   <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Middle Atlantic</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>East North Central</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>NM</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Middle Atlantic</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>East North Central</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
   </si>
   <si>
     <t>Michigan</t>
@@ -1392,25 +1392,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>1936</v>
+        <v>1995</v>
       </c>
       <c r="C7" s="10">
-        <v>3480</v>
+        <v>3698</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.44400000000000001</v>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="E7" s="10">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F7" s="10">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="G7" s="10">
-        <v>1648</v>
+        <v>1703</v>
       </c>
       <c r="H7" s="10">
-        <v>2528</v>
+        <v>2737</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L7" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>604</v>
       </c>
       <c r="D8" s="14">
-        <v>-0.85199999999999998</v>
+        <v>-0.85299999999999998</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.315</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="13">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>1526</v>
+        <v>1578</v>
       </c>
       <c r="C10" s="13">
-        <v>1883</v>
+        <v>2090</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.19</v>
+        <v>-0.245</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>1511</v>
+        <v>1562</v>
       </c>
       <c r="H10" s="13">
-        <v>1868</v>
+        <v>2074</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1532,31 +1532,31 @@
       <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>20</v>
+      <c r="K10" s="13">
+        <v>16</v>
       </c>
       <c r="L10" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="13">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C11" s="13">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="D11" s="14">
         <v>-0.70899999999999996</v>
       </c>
       <c r="E11" s="13">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F11" s="13">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="G11" s="13">
         <v>0</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>47859</v>
+        <v>51677</v>
       </c>
       <c r="C14" s="10">
-        <v>60450</v>
+        <v>64864</v>
       </c>
       <c r="D14" s="11">
-        <v>-0.20799999999999999</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>47228</v>
+        <v>51001</v>
       </c>
       <c r="H14" s="10">
-        <v>59805</v>
+        <v>64158</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1685,24 +1685,24 @@
         <v>2</v>
       </c>
       <c r="K14" s="10">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="L14" s="10">
-        <v>643</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>1106</v>
+        <v>1192</v>
       </c>
       <c r="C15" s="13">
-        <v>1553</v>
+        <v>1658</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.28799999999999998</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>1106</v>
+        <v>1192</v>
       </c>
       <c r="H15" s="13">
-        <v>1553</v>
+        <v>1658</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>1661</v>
+        <v>1684</v>
       </c>
       <c r="C16" s="13">
-        <v>2211</v>
+        <v>2293</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.249</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>1377</v>
       </c>
       <c r="H16" s="13">
-        <v>1954</v>
+        <v>2012</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1761,24 +1761,24 @@
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="L16" s="13">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>45092</v>
+        <v>48802</v>
       </c>
       <c r="C17" s="13">
-        <v>56686</v>
+        <v>60913</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.20499999999999999</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>44746</v>
+        <v>48432</v>
       </c>
       <c r="H17" s="13">
-        <v>56298</v>
+        <v>60488</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1799,124 +1799,124 @@
         <v>2</v>
       </c>
       <c r="K17" s="13">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="L17" s="13">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>229992</v>
+        <v>248643</v>
       </c>
       <c r="C18" s="10">
-        <v>273272</v>
+        <v>293675</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.158</v>
+        <v>-0.153</v>
       </c>
       <c r="E18" s="10">
-        <v>137675</v>
+        <v>149861</v>
       </c>
       <c r="F18" s="10">
-        <v>156983</v>
+        <v>169441</v>
       </c>
       <c r="G18" s="10">
-        <v>90425</v>
+        <v>96721</v>
       </c>
       <c r="H18" s="10">
-        <v>113966</v>
+        <v>121689</v>
       </c>
       <c r="I18" s="10">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J18" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K18" s="10">
-        <v>1818</v>
+        <v>1979</v>
       </c>
       <c r="L18" s="10">
-        <v>2198</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>50222</v>
+        <v>53498</v>
       </c>
       <c r="C19" s="13">
-        <v>64346</v>
+        <v>69282</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.22</v>
+        <v>-0.22800000000000001</v>
       </c>
       <c r="E19" s="13">
-        <v>2940</v>
+        <v>3145</v>
       </c>
       <c r="F19" s="13">
-        <v>3191</v>
+        <v>3443</v>
       </c>
       <c r="G19" s="13">
-        <v>46043</v>
+        <v>48991</v>
       </c>
       <c r="H19" s="13">
-        <v>59795</v>
+        <v>64340</v>
       </c>
       <c r="I19" s="13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J19" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" s="13">
-        <v>1215</v>
+        <v>1334</v>
       </c>
       <c r="L19" s="13">
-        <v>1328</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="13">
+        <v>65522</v>
+      </c>
+      <c r="C20" s="13">
+        <v>73277</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-0.106</v>
+      </c>
+      <c r="E20" s="13">
+        <v>62335</v>
+      </c>
+      <c r="F20" s="13">
+        <v>68247</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3146</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4995</v>
+      </c>
+      <c r="I20" s="13">
+        <v>39</v>
+      </c>
+      <c r="J20" s="13">
+        <v>35</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13">
-        <v>60657</v>
-      </c>
-      <c r="C20" s="13">
-        <v>68181</v>
-      </c>
-      <c r="D20" s="14">
-        <v>-0.11</v>
-      </c>
-      <c r="E20" s="13">
-        <v>57703</v>
-      </c>
-      <c r="F20" s="13">
-        <v>63628</v>
-      </c>
-      <c r="G20" s="13">
-        <v>2918</v>
-      </c>
-      <c r="H20" s="13">
-        <v>4521</v>
-      </c>
-      <c r="I20" s="13">
-        <v>35</v>
-      </c>
-      <c r="J20" s="13">
-        <v>31</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="L20" s="13">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,25 +1924,25 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>33902</v>
+        <v>37040</v>
       </c>
       <c r="C21" s="13">
-        <v>44686</v>
+        <v>48891</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.24099999999999999</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="E21" s="13">
-        <v>33428</v>
+        <v>36524</v>
       </c>
       <c r="F21" s="13">
-        <v>44185</v>
+        <v>48346</v>
       </c>
       <c r="G21" s="13">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="H21" s="13">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="I21" s="13">
         <v>15</v>
@@ -1951,10 +1951,10 @@
         <v>62</v>
       </c>
       <c r="K21" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L21" s="13">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,25 +1962,25 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>57398</v>
+        <v>62158</v>
       </c>
       <c r="C22" s="13">
-        <v>64223</v>
+        <v>67902</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.106</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>16164</v>
+        <v>17835</v>
       </c>
       <c r="F22" s="13">
-        <v>14725</v>
+        <v>15716</v>
       </c>
       <c r="G22" s="13">
-        <v>41093</v>
+        <v>44179</v>
       </c>
       <c r="H22" s="13">
-        <v>49321</v>
+        <v>51992</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L22" s="13">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>27813</v>
+        <v>30426</v>
       </c>
       <c r="C23" s="13">
-        <v>31837</v>
+        <v>34323</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.126</v>
+        <v>-0.114</v>
       </c>
       <c r="E23" s="13">
-        <v>27440</v>
+        <v>30022</v>
       </c>
       <c r="F23" s="13">
-        <v>31254</v>
+        <v>33688</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="L23" s="13">
-        <v>583</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>152905</v>
+        <v>166288</v>
       </c>
       <c r="C24" s="10">
-        <v>170197</v>
+        <v>183185</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.10199999999999999</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>150509</v>
+        <v>163701</v>
       </c>
       <c r="F24" s="10">
-        <v>167553</v>
+        <v>180292</v>
       </c>
       <c r="G24" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" s="10">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J24" s="10">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K24" s="10">
-        <v>2238</v>
+        <v>2410</v>
       </c>
       <c r="L24" s="10">
-        <v>2468</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,19 +2076,19 @@
         <v>36</v>
       </c>
       <c r="B25" s="13">
-        <v>21636</v>
+        <v>23183</v>
       </c>
       <c r="C25" s="13">
-        <v>26534</v>
+        <v>27869</v>
       </c>
       <c r="D25" s="14">
-        <v>-0.185</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E25" s="13">
-        <v>20096</v>
+        <v>21530</v>
       </c>
       <c r="F25" s="13">
-        <v>24901</v>
+        <v>26080</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
@@ -2097,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J25" s="13">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K25" s="13">
-        <v>1435</v>
+        <v>1540</v>
       </c>
       <c r="L25" s="13">
-        <v>1528</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
         <v>37</v>
       </c>
       <c r="B26" s="13">
-        <v>19164</v>
+        <v>20829</v>
       </c>
       <c r="C26" s="13">
-        <v>21932</v>
+        <v>23094</v>
       </c>
       <c r="D26" s="14">
-        <v>-0.126</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>19164</v>
+        <v>20829</v>
       </c>
       <c r="F26" s="13">
-        <v>21932</v>
+        <v>23094</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2152,19 +2152,19 @@
         <v>38</v>
       </c>
       <c r="B27" s="13">
-        <v>18996</v>
+        <v>21067</v>
       </c>
       <c r="C27" s="13">
-        <v>20622</v>
+        <v>22627</v>
       </c>
       <c r="D27" s="14">
-        <v>-7.9000000000000001E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>18556</v>
+        <v>20589</v>
       </c>
       <c r="F27" s="13">
-        <v>20100</v>
+        <v>22053</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="13">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="L27" s="13">
-        <v>521</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,34 +2190,34 @@
         <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>51310</v>
+        <v>55363</v>
       </c>
       <c r="C28" s="13">
-        <v>56234</v>
+        <v>60696</v>
       </c>
       <c r="D28" s="14">
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E28" s="13">
-        <v>51238</v>
+        <v>55278</v>
       </c>
       <c r="F28" s="13">
-        <v>56144</v>
+        <v>60600</v>
       </c>
       <c r="G28" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I28" s="13">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J28" s="13">
-        <v>47</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="K28" s="13">
+        <v>24</v>
       </c>
       <c r="L28" s="13">
         <v>21</v>
@@ -2228,19 +2228,19 @@
         <v>40</v>
       </c>
       <c r="B29" s="13">
-        <v>18053</v>
+        <v>19803</v>
       </c>
       <c r="C29" s="13">
-        <v>20552</v>
+        <v>22201</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.122</v>
+        <v>-0.108</v>
       </c>
       <c r="E29" s="13">
-        <v>17776</v>
+        <v>19502</v>
       </c>
       <c r="F29" s="13">
-        <v>20233</v>
+        <v>21857</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="13">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="L29" s="13">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>41</v>
       </c>
       <c r="B30" s="13">
-        <v>22073</v>
+        <v>24184</v>
       </c>
       <c r="C30" s="13">
-        <v>23201</v>
+        <v>25396</v>
       </c>
       <c r="D30" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>22008</v>
+        <v>24113</v>
       </c>
       <c r="F30" s="13">
-        <v>23121</v>
+        <v>25305</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="13">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L30" s="13">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,19 +2304,19 @@
         <v>42</v>
       </c>
       <c r="B31" s="13">
-        <v>1672</v>
+        <v>1859</v>
       </c>
       <c r="C31" s="13">
-        <v>1121</v>
+        <v>1303</v>
       </c>
       <c r="D31" s="14">
-        <v>0.49099999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E31" s="13">
-        <v>1672</v>
+        <v>1859</v>
       </c>
       <c r="F31" s="13">
-        <v>1121</v>
+        <v>1303</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>202581</v>
+        <v>216995</v>
       </c>
       <c r="C32" s="10">
-        <v>213911</v>
+        <v>228255</v>
       </c>
       <c r="D32" s="11">
-        <v>-5.2999999999999999E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>176938</v>
+        <v>189503</v>
       </c>
       <c r="F32" s="10">
-        <v>187537</v>
+        <v>200125</v>
       </c>
       <c r="G32" s="10">
-        <v>24620</v>
+        <v>26392</v>
       </c>
       <c r="H32" s="10">
-        <v>24871</v>
+        <v>26492</v>
       </c>
       <c r="I32" s="10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J32" s="10">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K32" s="10">
-        <v>974</v>
+        <v>1047</v>
       </c>
       <c r="L32" s="10">
-        <v>1442</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="13">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C33" s="13">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.183</v>
+        <v>-0.215</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="13">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H33" s="13">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>33059</v>
+        <v>35889</v>
       </c>
       <c r="C35" s="13">
-        <v>37222</v>
+        <v>40145</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.112</v>
+        <v>-0.106</v>
       </c>
       <c r="E35" s="13">
-        <v>32209</v>
+        <v>34999</v>
       </c>
       <c r="F35" s="13">
-        <v>35975</v>
+        <v>38882</v>
       </c>
       <c r="G35" s="13">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="H35" s="13">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L35" s="13">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,19 +2494,19 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>32727</v>
+        <v>34969</v>
       </c>
       <c r="C36" s="13">
-        <v>34096</v>
+        <v>35464</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.04</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>32548</v>
+        <v>34775</v>
       </c>
       <c r="F36" s="13">
-        <v>33910</v>
+        <v>35261</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L36" s="13">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>12111</v>
+        <v>12758</v>
       </c>
       <c r="C37" s="13">
-        <v>12825</v>
+        <v>13424</v>
       </c>
       <c r="D37" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>12050</v>
+        <v>12691</v>
       </c>
       <c r="H37" s="13">
-        <v>12724</v>
+        <v>13316</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>0.19</v>
       </c>
       <c r="K37" s="13">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L37" s="13">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,37 +2570,37 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>32575</v>
+        <v>34439</v>
       </c>
       <c r="C38" s="13">
-        <v>36629</v>
+        <v>38505</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.111</v>
+        <v>-0.106</v>
       </c>
       <c r="E38" s="13">
-        <v>32105</v>
+        <v>33949</v>
       </c>
       <c r="F38" s="13">
-        <v>36109</v>
+        <v>37961</v>
       </c>
       <c r="G38" s="13">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H38" s="13">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I38" s="13">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J38" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K38" s="13">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L38" s="13">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,19 +2608,19 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>17958</v>
+        <v>19127</v>
       </c>
       <c r="C39" s="13">
-        <v>20164</v>
+        <v>21505</v>
       </c>
       <c r="D39" s="14">
-        <v>-0.109</v>
+        <v>-0.111</v>
       </c>
       <c r="E39" s="13">
-        <v>17861</v>
+        <v>19025</v>
       </c>
       <c r="F39" s="13">
-        <v>20041</v>
+        <v>21373</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L39" s="13">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,37 +2646,37 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>14298</v>
+        <v>14929</v>
       </c>
       <c r="C40" s="13">
-        <v>14669</v>
+        <v>15953</v>
       </c>
       <c r="D40" s="14">
-        <v>-2.5000000000000001E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>13483</v>
+        <v>14068</v>
       </c>
       <c r="F40" s="13">
-        <v>13583</v>
+        <v>14796</v>
       </c>
       <c r="G40" s="13">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="H40" s="13">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J40" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K40" s="13">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L40" s="13">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,25 +2684,25 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>59381</v>
+        <v>64414</v>
       </c>
       <c r="C41" s="13">
-        <v>57730</v>
+        <v>62663</v>
       </c>
       <c r="D41" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>48732</v>
+        <v>52687</v>
       </c>
       <c r="F41" s="13">
-        <v>47919</v>
+        <v>51852</v>
       </c>
       <c r="G41" s="13">
-        <v>10537</v>
+        <v>11616</v>
       </c>
       <c r="H41" s="13">
-        <v>9348</v>
+        <v>10302</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>112</v>
       </c>
       <c r="L41" s="13">
-        <v>464</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>115718</v>
+        <v>125615</v>
       </c>
       <c r="C42" s="10">
-        <v>133136</v>
+        <v>141946</v>
       </c>
       <c r="D42" s="11">
-        <v>-0.13100000000000001</v>
+        <v>-0.115</v>
       </c>
       <c r="E42" s="10">
-        <v>112475</v>
+        <v>122059</v>
       </c>
       <c r="F42" s="10">
-        <v>129626</v>
+        <v>138047</v>
       </c>
       <c r="G42" s="10">
-        <v>2412</v>
+        <v>2665</v>
       </c>
       <c r="H42" s="10">
-        <v>2592</v>
+        <v>2891</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>831</v>
+        <v>891</v>
       </c>
       <c r="L42" s="10">
-        <v>918</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,19 +2760,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>28757</v>
+        <v>31481</v>
       </c>
       <c r="C43" s="13">
-        <v>36314</v>
+        <v>38922</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.20799999999999999</v>
+        <v>-0.191</v>
       </c>
       <c r="E43" s="13">
-        <v>28690</v>
+        <v>31409</v>
       </c>
       <c r="F43" s="13">
-        <v>36233</v>
+        <v>38830</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L43" s="13">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>56156</v>
+        <v>60792</v>
       </c>
       <c r="C44" s="13">
-        <v>63274</v>
+        <v>67535</v>
       </c>
       <c r="D44" s="14">
-        <v>-0.112</v>
+        <v>-0.1</v>
       </c>
       <c r="E44" s="13">
-        <v>56156</v>
+        <v>60792</v>
       </c>
       <c r="F44" s="13">
-        <v>63274</v>
+        <v>67535</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>56</v>
       </c>
       <c r="B45" s="13">
-        <v>4529</v>
+        <v>4926</v>
       </c>
       <c r="C45" s="13">
-        <v>5857</v>
+        <v>6229</v>
       </c>
       <c r="D45" s="14">
-        <v>-0.22700000000000001</v>
+        <v>-0.20899999999999999</v>
       </c>
       <c r="E45" s="13">
-        <v>2118</v>
+        <v>2261</v>
       </c>
       <c r="F45" s="13">
-        <v>3265</v>
+        <v>3338</v>
       </c>
       <c r="G45" s="13">
-        <v>2412</v>
+        <v>2665</v>
       </c>
       <c r="H45" s="13">
-        <v>2592</v>
+        <v>2891</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>26275</v>
+        <v>28417</v>
       </c>
       <c r="C46" s="13">
-        <v>27691</v>
+        <v>29260</v>
       </c>
       <c r="D46" s="14">
-        <v>-5.0999999999999997E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>25511</v>
+        <v>27597</v>
       </c>
       <c r="F46" s="13">
-        <v>26855</v>
+        <v>28344</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>764</v>
+        <v>820</v>
       </c>
       <c r="L46" s="13">
-        <v>836</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>144393</v>
+        <v>157172</v>
       </c>
       <c r="C47" s="10">
-        <v>160915</v>
+        <v>172449</v>
       </c>
       <c r="D47" s="11">
-        <v>-0.10299999999999999</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>73380</v>
+        <v>78923</v>
       </c>
       <c r="F47" s="10">
-        <v>83654</v>
+        <v>89457</v>
       </c>
       <c r="G47" s="10">
-        <v>70637</v>
+        <v>77847</v>
       </c>
       <c r="H47" s="10">
-        <v>76897</v>
+        <v>82596</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L47" s="10">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,25 +2950,25 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>19330</v>
+        <v>20872</v>
       </c>
       <c r="C48" s="13">
-        <v>19582</v>
+        <v>20683</v>
       </c>
       <c r="D48" s="14">
-        <v>-1.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E48" s="13">
-        <v>15607</v>
+        <v>16715</v>
       </c>
       <c r="F48" s="13">
-        <v>16021</v>
+        <v>16836</v>
       </c>
       <c r="G48" s="13">
-        <v>3682</v>
+        <v>4111</v>
       </c>
       <c r="H48" s="13">
-        <v>3514</v>
+        <v>3796</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L48" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,25 +2988,25 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>10111</v>
+        <v>10696</v>
       </c>
       <c r="C49" s="13">
-        <v>13227</v>
+        <v>14233</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.23599999999999999</v>
+        <v>-0.248</v>
       </c>
       <c r="E49" s="13">
-        <v>6805</v>
+        <v>7176</v>
       </c>
       <c r="F49" s="13">
-        <v>7711</v>
+        <v>8404</v>
       </c>
       <c r="G49" s="13">
-        <v>3306</v>
+        <v>3521</v>
       </c>
       <c r="H49" s="13">
-        <v>5517</v>
+        <v>5829</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>15542</v>
+        <v>16980</v>
       </c>
       <c r="C50" s="13">
-        <v>22082</v>
+        <v>23552</v>
       </c>
       <c r="D50" s="14">
-        <v>-0.29599999999999999</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="E50" s="13">
-        <v>13614</v>
+        <v>14895</v>
       </c>
       <c r="F50" s="13">
-        <v>20262</v>
+        <v>21521</v>
       </c>
       <c r="G50" s="13">
-        <v>1592</v>
+        <v>1728</v>
       </c>
       <c r="H50" s="13">
-        <v>1503</v>
+        <v>1686</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="L50" s="13">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,25 +3064,25 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>99410</v>
+        <v>108624</v>
       </c>
       <c r="C51" s="13">
-        <v>106024</v>
+        <v>113981</v>
       </c>
       <c r="D51" s="14">
-        <v>-6.2E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>37353</v>
+        <v>40136</v>
       </c>
       <c r="F51" s="13">
-        <v>39660</v>
+        <v>42696</v>
       </c>
       <c r="G51" s="13">
-        <v>62057</v>
+        <v>68487</v>
       </c>
       <c r="H51" s="13">
-        <v>66363</v>
+        <v>71286</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>131777</v>
+        <v>145138</v>
       </c>
       <c r="C52" s="10">
-        <v>152934</v>
+        <v>166425</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.13800000000000001</v>
+        <v>-0.128</v>
       </c>
       <c r="E52" s="10">
-        <v>117887</v>
+        <v>129741</v>
       </c>
       <c r="F52" s="10">
-        <v>137403</v>
+        <v>149236</v>
       </c>
       <c r="G52" s="10">
-        <v>13147</v>
+        <v>14629</v>
       </c>
       <c r="H52" s="10">
-        <v>14676</v>
+        <v>16293</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="10">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="L52" s="10">
-        <v>855</v>
+        <v>897</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,19 +3140,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>25254</v>
+        <v>27434</v>
       </c>
       <c r="C53" s="13">
-        <v>30894</v>
+        <v>33415</v>
       </c>
       <c r="D53" s="14">
-        <v>-0.183</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="E53" s="13">
-        <v>25254</v>
+        <v>27434</v>
       </c>
       <c r="F53" s="13">
-        <v>30894</v>
+        <v>33415</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,25 +3178,25 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>24500</v>
+        <v>27038</v>
       </c>
       <c r="C54" s="13">
-        <v>26565</v>
+        <v>28712</v>
       </c>
       <c r="D54" s="14">
-        <v>-7.8E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E54" s="13">
-        <v>24446</v>
+        <v>26981</v>
       </c>
       <c r="F54" s="13">
-        <v>26511</v>
+        <v>28650</v>
       </c>
       <c r="G54" s="13">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H54" s="13">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L54" s="13">
         <v>7</v>
@@ -3216,13 +3216,13 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C55" s="13">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D55" s="14">
-        <v>-0.192</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L55" s="13">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>11684</v>
+        <v>13022</v>
       </c>
       <c r="C56" s="13">
-        <v>13176</v>
+        <v>14624</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.113</v>
+        <v>-0.11</v>
       </c>
       <c r="E56" s="13">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F56" s="13">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G56" s="13">
-        <v>11506</v>
+        <v>12827</v>
       </c>
       <c r="H56" s="13">
-        <v>12981</v>
+        <v>14423</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L56" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3292,25 +3292,25 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>2029</v>
+        <v>2094</v>
       </c>
       <c r="C57" s="13">
-        <v>2310</v>
+        <v>2475</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.122</v>
+        <v>-0.154</v>
       </c>
       <c r="E57" s="13">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="F57" s="13">
-        <v>1618</v>
+        <v>1713</v>
       </c>
       <c r="G57" s="13">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="H57" s="13">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,19 +3330,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>14533</v>
+        <v>16417</v>
       </c>
       <c r="C58" s="13">
-        <v>16871</v>
+        <v>18649</v>
       </c>
       <c r="D58" s="14">
-        <v>-0.13900000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E58" s="13">
-        <v>14533</v>
+        <v>16417</v>
       </c>
       <c r="F58" s="13">
-        <v>16871</v>
+        <v>18649</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3368,25 +3368,25 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>21046</v>
+        <v>23260</v>
       </c>
       <c r="C59" s="13">
-        <v>26994</v>
+        <v>28948</v>
       </c>
       <c r="D59" s="14">
-        <v>-0.22</v>
+        <v>-0.19700000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>20324</v>
+        <v>22506</v>
       </c>
       <c r="F59" s="13">
-        <v>26228</v>
+        <v>28145</v>
       </c>
       <c r="G59" s="13">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="H59" s="13">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3406,25 +3406,25 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>32681</v>
+        <v>35817</v>
       </c>
       <c r="C60" s="13">
-        <v>36060</v>
+        <v>39531</v>
       </c>
       <c r="D60" s="14">
         <v>-9.4E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>31871</v>
+        <v>34930</v>
       </c>
       <c r="F60" s="13">
-        <v>35092</v>
+        <v>38468</v>
       </c>
       <c r="G60" s="13">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="H60" s="13">
-        <v>613</v>
+        <v>674</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L60" s="13">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>5237</v>
+        <v>5706</v>
       </c>
       <c r="C61" s="10">
-        <v>5768</v>
+        <v>6601</v>
       </c>
       <c r="D61" s="11">
-        <v>-9.1999999999999998E-2</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="E61" s="10">
         <v>1530</v>
       </c>
       <c r="F61" s="10">
-        <v>1700</v>
+        <v>2002</v>
       </c>
       <c r="G61" s="10">
-        <v>3416</v>
+        <v>3856</v>
       </c>
       <c r="H61" s="10">
-        <v>3795</v>
+        <v>4299</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L61" s="10">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C62" s="13">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D62" s="14">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L62" s="13">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3523,16 +3523,16 @@
         <v>1530</v>
       </c>
       <c r="C63" s="13">
-        <v>1700</v>
+        <v>2002</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.1</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="E63" s="13">
         <v>1530</v>
       </c>
       <c r="F63" s="13">
-        <v>1700</v>
+        <v>2002</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>3442</v>
+        <v>3885</v>
       </c>
       <c r="C64" s="13">
-        <v>3824</v>
+        <v>4332</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.1</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>3416</v>
+        <v>3856</v>
       </c>
       <c r="H64" s="13">
-        <v>3795</v>
+        <v>4299</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L64" s="13">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,37 +3596,37 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>1723</v>
+        <v>1890</v>
       </c>
       <c r="C65" s="10">
-        <v>1613</v>
+        <v>1804</v>
       </c>
       <c r="D65" s="11">
-        <v>6.8000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F65" s="10">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G65" s="10">
-        <v>1360</v>
+        <v>1497</v>
       </c>
       <c r="H65" s="10">
-        <v>1222</v>
+        <v>1365</v>
       </c>
       <c r="I65" s="10">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J65" s="10">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L65" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,31 +3634,31 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C66" s="13">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.121</v>
+        <v>-0.154</v>
       </c>
       <c r="E66" s="13">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F66" s="13">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="G66" s="13">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H66" s="13">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I66" s="13">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J66" s="13">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K66" s="13">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>1265</v>
+        <v>1394</v>
       </c>
       <c r="C67" s="13">
-        <v>1093</v>
+        <v>1218</v>
       </c>
       <c r="D67" s="14">
-        <v>0.158</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>1241</v>
+        <v>1368</v>
       </c>
       <c r="H67" s="13">
-        <v>1060</v>
+        <v>1185</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L67" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>1034120</v>
+        <v>1121120</v>
       </c>
       <c r="C68" s="10">
-        <v>1175676</v>
+        <v>1262903</v>
       </c>
       <c r="D68" s="11">
-        <v>-0.12</v>
+        <v>-0.112</v>
       </c>
       <c r="E68" s="10">
-        <v>770910</v>
+        <v>835856</v>
       </c>
       <c r="F68" s="10">
-        <v>865636</v>
+        <v>929827</v>
       </c>
       <c r="G68" s="10">
-        <v>254908</v>
+        <v>276328</v>
       </c>
       <c r="H68" s="10">
-        <v>300374</v>
+        <v>322545</v>
       </c>
       <c r="I68" s="10">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="J68" s="10">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="K68" s="10">
-        <v>7950</v>
+        <v>8544</v>
       </c>
       <c r="L68" s="10">
-        <v>9234</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
